--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Execution</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>WorkItemTypes</t>
+  </si>
+  <si>
+    <t>WorkItemStatusTypes</t>
+  </si>
+  <si>
+    <t>SWIFTBankOperationCodeTypes</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -601,16 +607,38 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSheet" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Execution</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -49,28 +46,64 @@
     <t>ChargeBasisTypes</t>
   </si>
   <si>
-    <t>ChargeIntervalTypes</t>
-  </si>
-  <si>
-    <t>ClearingHouseIDTypes</t>
-  </si>
-  <si>
-    <t>Limittype</t>
-  </si>
-  <si>
-    <t>AsynchronousTaskTypesNew</t>
-  </si>
-  <si>
-    <t>AccountTypesNew</t>
-  </si>
-  <si>
-    <t>WorkItemTypes</t>
-  </si>
-  <si>
     <t>WorkItemStatusTypes</t>
   </si>
   <si>
     <t>SWIFTBankOperationCodeTypes</t>
+  </si>
+  <si>
+    <t>ConversionRates</t>
+  </si>
+  <si>
+    <t>CurrentStatusTypes</t>
+  </si>
+  <si>
+    <t>DayRanges</t>
+  </si>
+  <si>
+    <t>ImageDocumentVersion</t>
+  </si>
+  <si>
+    <t>LimitHistoryTypes</t>
+  </si>
+  <si>
+    <t>LimitTypes</t>
+  </si>
+  <si>
+    <t>LiquidateTypes</t>
+  </si>
+  <si>
+    <t>MatchingResultStatusTypes</t>
+  </si>
+  <si>
+    <t>ProcessModeTypes</t>
+  </si>
+  <si>
+    <t>ProcessStepTypes</t>
+  </si>
+  <si>
+    <t>ProductCategories</t>
+  </si>
+  <si>
+    <t>ProductTypes</t>
+  </si>
+  <si>
+    <t>SettleAmountTypes</t>
+  </si>
+  <si>
+    <t>TracerTypes</t>
+  </si>
+  <si>
+    <t>VATTypes</t>
+  </si>
+  <si>
+    <t>WhenTypes</t>
+  </si>
+  <si>
+    <t>ReviewReasonTypes</t>
+  </si>
+  <si>
+    <t>RevolvePeriods</t>
   </si>
 </sst>
 </file>
@@ -130,12 +163,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -150,12 +185,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,172 +509,318 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -19,9 +19,6 @@
     <t>Execution</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TestScenarioName</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>RevolvePeriods</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B3" sqref="B3:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,24 +509,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -799,10 +799,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -811,16 +811,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Execution</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -538,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -562,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -574,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -586,7 +589,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -598,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -610,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -622,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -634,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -646,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -658,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -670,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -682,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -694,7 +697,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -706,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -718,7 +721,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -730,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -742,7 +745,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -754,7 +757,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -766,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -778,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -790,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -802,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -813,7 +816,7 @@
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Execution</t>
   </si>
@@ -31,15 +31,6 @@
     <t>No_Of_Iterations</t>
   </si>
   <si>
-    <t>BulkPaymentTypes</t>
-  </si>
-  <si>
-    <t>BusinessAreas</t>
-  </si>
-  <si>
-    <t>CalendarMonth</t>
-  </si>
-  <si>
     <t>ChargeBasisTypes</t>
   </si>
   <si>
@@ -58,33 +49,12 @@
     <t>DayRanges</t>
   </si>
   <si>
-    <t>ImageDocumentVersion</t>
-  </si>
-  <si>
     <t>LimitHistoryTypes</t>
   </si>
   <si>
-    <t>LimitTypes</t>
-  </si>
-  <si>
-    <t>LiquidateTypes</t>
-  </si>
-  <si>
-    <t>MatchingResultStatusTypes</t>
-  </si>
-  <si>
     <t>ProcessModeTypes</t>
   </si>
   <si>
-    <t>ProcessStepTypes</t>
-  </si>
-  <si>
-    <t>ProductCategories</t>
-  </si>
-  <si>
-    <t>ProductTypes</t>
-  </si>
-  <si>
     <t>SettleAmountTypes</t>
   </si>
   <si>
@@ -107,6 +77,45 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>BAPurposeTypes</t>
+  </si>
+  <si>
+    <t>ChargeIntervalTypes</t>
+  </si>
+  <si>
+    <t>ClearingHouseIda</t>
+  </si>
+  <si>
+    <t>ClearingHouseIDTypes</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>DeniedPartyWatchLists</t>
+  </si>
+  <si>
+    <t>InsuranceTypes</t>
+  </si>
+  <si>
+    <t>Master_Ramana</t>
+  </si>
+  <si>
+    <t>MessageCategories</t>
+  </si>
+  <si>
+    <t>Newfolder</t>
+  </si>
+  <si>
+    <t>OCRLanguages</t>
+  </si>
+  <si>
+    <t>RefinanceTypes</t>
+  </si>
+  <si>
+    <t>WorkItemTypes</t>
   </si>
 </sst>
 </file>
@@ -182,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +204,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +539,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -538,10 +551,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -550,10 +563,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -562,10 +575,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -574,10 +587,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -586,10 +599,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -598,10 +611,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -610,10 +623,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -622,10 +635,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -634,10 +647,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -646,10 +659,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -658,10 +671,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -670,10 +683,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -682,10 +695,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -694,10 +707,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -706,10 +719,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -718,10 +731,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -730,10 +743,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -742,10 +755,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -754,10 +767,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -766,10 +779,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -778,10 +791,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -790,10 +803,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -802,27 +815,61 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="-15" yWindow="5415" windowWidth="20520" windowHeight="2745"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>Execution</t>
   </si>
@@ -76,46 +76,94 @@
     <t>Y</t>
   </si>
   <si>
+    <t>BAPurposeTypes</t>
+  </si>
+  <si>
+    <t>ChargeIntervalTypes</t>
+  </si>
+  <si>
+    <t>ClearingHouseIda</t>
+  </si>
+  <si>
+    <t>ClearingHouseIDTypes</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>DeniedPartyWatchLists</t>
+  </si>
+  <si>
+    <t>InsuranceTypes</t>
+  </si>
+  <si>
+    <t>MessageCategories</t>
+  </si>
+  <si>
+    <t>OCRLanguages</t>
+  </si>
+  <si>
+    <t>RefinanceTypes</t>
+  </si>
+  <si>
+    <t>WorkItemTypes</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>BAPurposeTypes</t>
-  </si>
-  <si>
-    <t>ChargeIntervalTypes</t>
-  </si>
-  <si>
-    <t>ClearingHouseIda</t>
-  </si>
-  <si>
-    <t>ClearingHouseIDTypes</t>
-  </si>
-  <si>
-    <t>DataType</t>
-  </si>
-  <si>
-    <t>DeniedPartyWatchLists</t>
-  </si>
-  <si>
-    <t>InsuranceTypes</t>
-  </si>
-  <si>
-    <t>Master_Ramana</t>
-  </si>
-  <si>
-    <t>MessageCategories</t>
-  </si>
-  <si>
-    <t>Newfolder</t>
-  </si>
-  <si>
-    <t>OCRLanguages</t>
-  </si>
-  <si>
-    <t>RefinanceTypes</t>
-  </si>
-  <si>
-    <t>WorkItemTypes</t>
+    <t>AsynchronousTaskTypes</t>
+  </si>
+  <si>
+    <t>BulkPaymentTypes</t>
+  </si>
+  <si>
+    <t>BusinessAreas</t>
+  </si>
+  <si>
+    <t>CalendarMonth</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>ImageDocumentVersion</t>
+  </si>
+  <si>
+    <t>ImageSourceTypes</t>
+  </si>
+  <si>
+    <t>LimitTypes</t>
+  </si>
+  <si>
+    <t>LiquidateTypes</t>
+  </si>
+  <si>
+    <t>MatchingResultStatusTypes</t>
+  </si>
+  <si>
+    <t>NumericWords</t>
+  </si>
+  <si>
+    <t>PriorityTypes</t>
+  </si>
+  <si>
+    <t>ProcessStepTypes</t>
+  </si>
+  <si>
+    <t>ProductCategories</t>
+  </si>
+  <si>
+    <t>ProductTypes</t>
+  </si>
+  <si>
+    <t>AccountTypes</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -205,9 +253,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +573,7 @@
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -537,339 +587,554 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9">
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9">
         <v>0</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="MasterSheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterSheet!$A$1:$E$89</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
   <si>
     <t>Execution</t>
   </si>
@@ -61,116 +64,218 @@
     <t>TracerTypes</t>
   </si>
   <si>
+    <t>WhenTypes</t>
+  </si>
+  <si>
+    <t>ReviewReasonTypes</t>
+  </si>
+  <si>
+    <t>RevolvePeriods</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BAPurposeTypes</t>
+  </si>
+  <si>
+    <t>ChargeIntervalTypes</t>
+  </si>
+  <si>
+    <t>ClearingHouseIda</t>
+  </si>
+  <si>
+    <t>ClearingHouseIDTypes</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>DeniedPartyWatchLists</t>
+  </si>
+  <si>
+    <t>InsuranceTypes</t>
+  </si>
+  <si>
+    <t>MessageCategories</t>
+  </si>
+  <si>
+    <t>OCRLanguages</t>
+  </si>
+  <si>
+    <t>RefinanceTypes</t>
+  </si>
+  <si>
+    <t>WorkItemTypes</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>AsynchronousTaskTypes</t>
+  </si>
+  <si>
+    <t>BulkPaymentTypes</t>
+  </si>
+  <si>
+    <t>BusinessAreas</t>
+  </si>
+  <si>
+    <t>CalendarMonth</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>ImageDocumentVersion</t>
+  </si>
+  <si>
+    <t>ImageSourceTypes</t>
+  </si>
+  <si>
+    <t>LimitTypes</t>
+  </si>
+  <si>
+    <t>LiquidateTypes</t>
+  </si>
+  <si>
+    <t>MatchingResultStatusTypes</t>
+  </si>
+  <si>
+    <t>NumericWords</t>
+  </si>
+  <si>
+    <t>PriorityTypes</t>
+  </si>
+  <si>
+    <t>ProcessStepTypes</t>
+  </si>
+  <si>
+    <t>ProductCategories</t>
+  </si>
+  <si>
+    <t>ProductTypes</t>
+  </si>
+  <si>
+    <t>AccountTypes</t>
+  </si>
+  <si>
+    <t>List/Labels</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Raghu</t>
+  </si>
+  <si>
+    <t>SWIFTChargeDetailsCodeTypes</t>
+  </si>
+  <si>
+    <t>FinanacingTypes</t>
+  </si>
+  <si>
+    <t>TelecomStatusTypes</t>
+  </si>
+  <si>
+    <t>JobInquiry</t>
+  </si>
+  <si>
+    <t>SWIFTMessageTagRule</t>
+  </si>
+  <si>
+    <t>List/PortalDocumentRule</t>
+  </si>
+  <si>
+    <t>AML/KYCTypes</t>
+  </si>
+  <si>
+    <t>TransportDocTypes</t>
+  </si>
+  <si>
+    <t>AdviceMethodTypes</t>
+  </si>
+  <si>
+    <t>PO/InvoiceFinanceStatusTypes</t>
+  </si>
+  <si>
+    <t>CommodityClassifcation</t>
+  </si>
+  <si>
+    <t>AdvancePurposeTypes</t>
+  </si>
+  <si>
+    <t>AutoExtPerTypes</t>
+  </si>
+  <si>
+    <t>CarPurposeTypes</t>
+  </si>
+  <si>
+    <t>GuaranteePurposeTypes</t>
+  </si>
+  <si>
+    <t>TransportDocumentRule</t>
+  </si>
+  <si>
+    <t>Product/PurgeStatusRule</t>
+  </si>
+  <si>
+    <t>SWIFTIDs</t>
+  </si>
+  <si>
+    <t>TenorTypes</t>
+  </si>
+  <si>
+    <t>DocumentCategories</t>
+  </si>
+  <si>
     <t>VATTypes</t>
   </si>
   <si>
-    <t>WhenTypes</t>
-  </si>
-  <si>
-    <t>ReviewReasonTypes</t>
-  </si>
-  <si>
-    <t>RevolvePeriods</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>BAPurposeTypes</t>
-  </si>
-  <si>
-    <t>ChargeIntervalTypes</t>
-  </si>
-  <si>
-    <t>ClearingHouseIda</t>
-  </si>
-  <si>
-    <t>ClearingHouseIDTypes</t>
-  </si>
-  <si>
-    <t>DataType</t>
-  </si>
-  <si>
-    <t>DeniedPartyWatchLists</t>
-  </si>
-  <si>
-    <t>InsuranceTypes</t>
-  </si>
-  <si>
-    <t>MessageCategories</t>
-  </si>
-  <si>
-    <t>OCRLanguages</t>
-  </si>
-  <si>
-    <t>RefinanceTypes</t>
-  </si>
-  <si>
-    <t>WorkItemTypes</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>AsynchronousTaskTypes</t>
-  </si>
-  <si>
-    <t>BulkPaymentTypes</t>
-  </si>
-  <si>
-    <t>BusinessAreas</t>
-  </si>
-  <si>
-    <t>CalendarMonth</t>
-  </si>
-  <si>
-    <t>ActivityType</t>
-  </si>
-  <si>
-    <t>ImageDocumentVersion</t>
-  </si>
-  <si>
-    <t>ImageSourceTypes</t>
-  </si>
-  <si>
-    <t>LimitTypes</t>
-  </si>
-  <si>
-    <t>LiquidateTypes</t>
-  </si>
-  <si>
-    <t>MatchingResultStatusTypes</t>
-  </si>
-  <si>
-    <t>NumericWords</t>
-  </si>
-  <si>
-    <t>PriorityTypes</t>
-  </si>
-  <si>
-    <t>ProcessStepTypes</t>
-  </si>
-  <si>
-    <t>ProductCategories</t>
-  </si>
-  <si>
-    <t>ProductTypes</t>
-  </si>
-  <si>
-    <t>AccountTypes</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>PaymentBeneficiaryStatusTypes</t>
+  </si>
+  <si>
+    <t>DocumentStatus</t>
+  </si>
+  <si>
+    <t>ImportProofType</t>
+  </si>
+  <si>
+    <t>CustomerServices</t>
+  </si>
+  <si>
+    <t>IncotermTypes</t>
+  </si>
+  <si>
+    <t>DeliveryMethods</t>
+  </si>
+  <si>
+    <t>CollateralCodeTypes</t>
+  </si>
+  <si>
+    <t>SLCPurposeTypes</t>
+  </si>
+  <si>
+    <t>ReducePeriodTypes</t>
+  </si>
+  <si>
+    <t>FacilityRating</t>
+  </si>
+  <si>
+    <t>FaxLocations</t>
+  </si>
+  <si>
+    <t>TracerType</t>
+  </si>
+  <si>
+    <t>ImageSourceType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +286,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -199,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,11 +346,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,9 +389,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,21 +702,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -587,558 +731,1101 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
         <v>0</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8">
         <v>0</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="9">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8">
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="9">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8">
         <v>0</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="9">
+        <v>30</v>
+      </c>
+      <c r="C22" s="8">
         <v>0</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="9">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8">
         <v>0</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9">
+        <v>30</v>
+      </c>
+      <c r="C27" s="8">
         <v>0</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="9">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8">
         <v>0</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="9">
+        <v>30</v>
+      </c>
+      <c r="C32" s="8">
         <v>0</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="9">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8">
         <v>0</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="9">
+        <v>30</v>
+      </c>
+      <c r="C35" s="8">
         <v>0</v>
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="9">
+        <v>30</v>
+      </c>
+      <c r="C36" s="8">
         <v>0</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="9">
+        <v>30</v>
+      </c>
+      <c r="C37" s="8">
         <v>0</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="9">
+        <v>30</v>
+      </c>
+      <c r="C38" s="8">
         <v>0</v>
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="9">
+        <v>30</v>
+      </c>
+      <c r="C40" s="8">
         <v>0</v>
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="9">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="9">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="B54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E89">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/TestData/JTPS-DEVQA/Master_Ramana.xlsx
+++ b/TestData/JTPS-DEVQA/Master_Ramana.xlsx
@@ -10,7 +10,7 @@
     <sheet name="MasterSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterSheet!$A$1:$E$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterSheet!$A$1:$E$88</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -702,11 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,19 +730,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -755,7 +754,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -767,7 +766,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -779,7 +778,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -791,7 +790,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -803,7 +802,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -815,7 +814,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -827,7 +826,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -839,7 +838,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -851,7 +850,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -863,7 +862,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -875,7 +874,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -887,7 +886,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -899,7 +898,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -911,7 +910,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -923,7 +922,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -935,7 +934,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -947,7 +946,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -959,7 +958,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -971,7 +970,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -983,7 +982,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -995,7 +994,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1007,7 +1006,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -1019,7 +1018,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -1031,7 +1030,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1042,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1054,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1067,7 +1066,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -1079,7 +1078,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -1091,7 +1090,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -1103,7 +1102,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
@@ -1115,7 +1114,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1126,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1138,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1150,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1162,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
@@ -1175,17 +1174,21 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="2"/>
+    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C39" s="8">
         <v>0</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>15</v>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
@@ -1195,9 +1198,9 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>30</v>
@@ -1205,11 +1208,11 @@
       <c r="C41" s="8">
         <v>0</v>
       </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>30</v>
@@ -1219,9 +1222,9 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
@@ -1231,21 +1234,24 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C44" s="8">
         <v>0</v>
       </c>
       <c r="D44" s="2"/>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
@@ -1260,70 +1266,70 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="8">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s">
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="8">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="8">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="8">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="8">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>18</v>
@@ -1338,85 +1344,85 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="8">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s">
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="8">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="8">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="8">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>83</v>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>18</v>
@@ -1431,193 +1437,193 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="8">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s">
+      <c r="C70" s="8">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="8">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="8">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="8">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="8">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="8">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="8">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="8">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="8">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="8">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>68</v>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="8">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s">
+      <c r="C73" s="8">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="8">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="8">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>18</v>
@@ -1632,121 +1638,118 @@
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="8">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s">
+      <c r="C82" s="8">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="8">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="8">
-        <v>0</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="8">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="8">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="8">
-        <v>0</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="8">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="8">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C83" s="8">
         <v>0</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>30</v>
@@ -1756,9 +1759,9 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>30</v>
@@ -1768,9 +1771,9 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>30</v>
@@ -1780,9 +1783,9 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>30</v>
@@ -1792,40 +1795,22 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="8">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E89">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E88"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
